--- a/root/Daten.xlsx
+++ b/root/Daten.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="7810" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId1"/>
@@ -39,22 +39,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -135,25 +124,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -533,2031 +517,2030 @@
   </sheetPr>
   <dimension ref="A2:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="12.08984375" customWidth="1" min="5" max="5"/>
-    <col width="19.90625" customWidth="1" min="11" max="11"/>
-    <col width="12.6328125" customWidth="1" min="14" max="14"/>
-    <col width="13" customWidth="1" min="17" max="17"/>
-    <col width="13.08984375" customWidth="1" min="20" max="20"/>
-    <col width="13.81640625" customWidth="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="8" min="2" max="2"/>
+    <col width="12.08984375" customWidth="1" style="8" min="5" max="5"/>
+    <col width="19.90625" customWidth="1" style="8" min="11" max="11"/>
+    <col width="12.6328125" customWidth="1" style="8" min="14" max="14"/>
+    <col width="13" customWidth="1" style="8" min="17" max="17"/>
+    <col width="13.08984375" customWidth="1" style="8" min="20" max="20"/>
+    <col width="13.81640625" customWidth="1" style="8" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>Currencies</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="7" t="inlineStr">
         <is>
           <t>Energies</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="7" t="inlineStr">
         <is>
           <t>Equities</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="J2" s="7" t="inlineStr">
         <is>
           <t>Financials</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="M2" s="7" t="inlineStr">
         <is>
           <t>Grains</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="P2" s="7" t="inlineStr">
         <is>
           <t>Meats</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="S2" s="7" t="inlineStr">
         <is>
           <t>Metals</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="V2" s="7" t="inlineStr">
         <is>
           <t>Softs</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" thickBot="1"/>
+    <row r="3" ht="15" customHeight="1" s="8" thickBot="1"/>
     <row r="4">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Euro FX</t>
         </is>
       </c>
-      <c r="B4" s="9" t="n"/>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="B4" s="6" t="n"/>
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Crude Oil</t>
         </is>
       </c>
-      <c r="E4" s="9" t="n"/>
-      <c r="G4" s="8" t="inlineStr">
+      <c r="E4" s="6" t="n"/>
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>S&amp;P 500 Futures</t>
         </is>
       </c>
-      <c r="H4" s="9" t="n"/>
-      <c r="J4" s="8" t="inlineStr">
+      <c r="H4" s="6" t="n"/>
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>30-Year U.S Treasury Bond Futures</t>
         </is>
       </c>
-      <c r="K4" s="9" t="n"/>
-      <c r="M4" s="8" t="inlineStr">
+      <c r="K4" s="6" t="n"/>
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>Corn</t>
         </is>
       </c>
-      <c r="N4" s="9" t="n"/>
-      <c r="P4" s="8" t="inlineStr">
+      <c r="N4" s="6" t="n"/>
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>Live Cattle</t>
         </is>
       </c>
-      <c r="Q4" s="9" t="n"/>
-      <c r="S4" s="8" t="inlineStr">
+      <c r="Q4" s="6" t="n"/>
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>Gold</t>
         </is>
       </c>
-      <c r="T4" s="9" t="n"/>
-      <c r="V4" s="8" t="inlineStr">
+      <c r="T4" s="6" t="n"/>
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>Random Length Lumber</t>
         </is>
       </c>
-      <c r="W4" s="9" t="n"/>
+      <c r="W4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="M5" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="N5" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="P5" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="Q5" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="S5" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="T5" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="V5" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="W5" s="5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V5" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
         <is>
           <t>Total Volume:</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>656</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>78,125</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>DEC 2021</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>34,916</t>
         </is>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="1" t="inlineStr">
         <is>
           <t>DEC 2021</t>
         </is>
       </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>260</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>129,569</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P6" s="1" t="inlineStr">
         <is>
           <t>DEC 2021</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="inlineStr">
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>749</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="1" t="inlineStr">
         <is>
           <t>DEC 2021</t>
         </is>
       </c>
-      <c r="T6" s="5" t="inlineStr">
+      <c r="T6" s="2" t="inlineStr">
         <is>
           <t>654</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="W6" s="5" t="inlineStr">
+      <c r="W6" s="2" t="inlineStr">
         <is>
           <t>229</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>431</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>351,303</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>2,472,118</t>
         </is>
       </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>285,541</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="1" t="inlineStr">
         <is>
           <t>MAY 2022</t>
         </is>
       </c>
-      <c r="N7" s="5" t="inlineStr">
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>31,590</t>
         </is>
       </c>
-      <c r="P7" s="4" t="inlineStr">
+      <c r="P7" s="1" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="inlineStr">
+      <c r="Q7" s="2" t="inlineStr">
         <is>
           <t>18,785</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="T7" s="5" t="inlineStr">
+      <c r="T7" s="2" t="inlineStr">
         <is>
           <t>792</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="W7" s="5" t="inlineStr">
+      <c r="V7" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
         <is>
           <t>216</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>139,763</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>92,984</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>JUN 2022</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>1,133</t>
         </is>
       </c>
-      <c r="J8" s="6" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>JUN 2022</t>
         </is>
       </c>
-      <c r="K8" s="7" t="inlineStr">
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="M8" s="6" t="inlineStr">
+      <c r="M8" s="3" t="inlineStr">
         <is>
           <t>JUL 2022</t>
         </is>
       </c>
-      <c r="N8" s="7" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>23,838</t>
         </is>
       </c>
-      <c r="P8" s="6" t="inlineStr">
+      <c r="P8" s="3" t="inlineStr">
         <is>
           <t>APR 2022</t>
         </is>
       </c>
-      <c r="Q8" s="7" t="inlineStr">
+      <c r="Q8" s="4" t="inlineStr">
         <is>
           <t>9,373</t>
         </is>
       </c>
-      <c r="S8" s="6" t="inlineStr">
+      <c r="S8" s="3" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="T8" s="7" t="inlineStr">
+      <c r="T8" s="4" t="inlineStr">
         <is>
           <t>156,607</t>
         </is>
       </c>
-      <c r="V8" s="6" t="inlineStr">
+      <c r="V8" s="3" t="inlineStr">
         <is>
           <t>MAY 2022</t>
         </is>
       </c>
-      <c r="W8" s="7" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" thickBot="1"/>
+    <row r="9" ht="15" customHeight="1" s="8" thickBot="1"/>
     <row r="10">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Swiss Franc</t>
         </is>
       </c>
-      <c r="B10" s="9" t="n"/>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="B10" s="6" t="n"/>
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>RBOB Gasoline</t>
         </is>
       </c>
-      <c r="E10" s="9" t="n"/>
-      <c r="G10" s="8" t="inlineStr">
+      <c r="E10" s="6" t="n"/>
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>E Mini Nasdq 100</t>
         </is>
       </c>
-      <c r="H10" s="9" t="n"/>
-      <c r="J10" s="8" t="inlineStr">
+      <c r="H10" s="6" t="n"/>
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>10-Year T-Note Futures</t>
         </is>
       </c>
-      <c r="K10" s="9" t="n"/>
-      <c r="M10" s="8" t="inlineStr">
+      <c r="K10" s="6" t="n"/>
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>Chicago SRW Wheat</t>
         </is>
       </c>
-      <c r="N10" s="9" t="n"/>
-      <c r="P10" s="8" t="inlineStr">
+      <c r="N10" s="6" t="n"/>
+      <c r="P10" s="5" t="inlineStr">
         <is>
           <t>Feeder Cattle</t>
         </is>
       </c>
-      <c r="Q10" s="9" t="n"/>
-      <c r="S10" s="8" t="inlineStr">
+      <c r="Q10" s="6" t="n"/>
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>Silver</t>
         </is>
       </c>
-      <c r="T10" s="9" t="n"/>
-      <c r="V10" s="8" t="inlineStr">
+      <c r="T10" s="6" t="n"/>
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>Cotton No-2 Futures</t>
         </is>
       </c>
-      <c r="W10" s="9" t="n"/>
+      <c r="W10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="K11" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="N11" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="P11" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="Q11" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="S11" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="T11" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="V11" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="W11" s="5" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="P11" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="S11" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V11" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
         <is>
           <t>Total Volume:</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>17,154</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>53,453</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="1" t="inlineStr">
         <is>
           <t>DEC 2021</t>
         </is>
       </c>
-      <c r="H12" s="5" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>9,391</t>
         </is>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="1" t="inlineStr">
         <is>
           <t>DEC 2021</t>
         </is>
       </c>
-      <c r="K12" s="5" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>1,109</t>
         </is>
       </c>
-      <c r="M12" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="N12" s="5" t="inlineStr">
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>38,053</t>
         </is>
       </c>
-      <c r="P12" s="4" t="inlineStr">
+      <c r="P12" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="Q12" s="5" t="inlineStr">
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>4,596</t>
         </is>
       </c>
-      <c r="S12" s="4" t="inlineStr">
+      <c r="S12" s="1" t="inlineStr">
         <is>
           <t>DEC 2021</t>
         </is>
       </c>
-      <c r="T12" s="5" t="inlineStr">
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="V12" s="4" t="inlineStr">
+      <c r="V12" s="1" t="inlineStr">
         <is>
           <t>Mar22</t>
         </is>
       </c>
-      <c r="W12" s="5" t="n">
+      <c r="W12" s="2" t="n">
         <v>12171</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>JUN 2022</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>64,407</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="H13" s="5" t="inlineStr">
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>800,579</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="K13" s="5" t="inlineStr">
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>1,175,627</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="1" t="inlineStr">
         <is>
           <t>MAY 2022</t>
         </is>
       </c>
-      <c r="N13" s="5" t="inlineStr">
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>11,353</t>
         </is>
       </c>
-      <c r="P13" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="Q13" s="5" t="inlineStr">
+      <c r="P13" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>6,690</t>
         </is>
       </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="S13" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="T13" s="5" t="inlineStr">
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>1,120</t>
         </is>
       </c>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="V13" s="1" t="inlineStr">
         <is>
           <t>May22</t>
         </is>
       </c>
-      <c r="W13" s="5" t="n">
+      <c r="W13" s="2" t="n">
         <v>3269</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>SEP 2022</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>27,290</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t>JUN 2022</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr">
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>661</t>
         </is>
       </c>
-      <c r="J14" s="6" t="inlineStr">
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t>JUN 2022</t>
         </is>
       </c>
-      <c r="K14" s="7" t="inlineStr">
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>290</t>
         </is>
       </c>
-      <c r="M14" s="6" t="inlineStr">
+      <c r="M14" s="3" t="inlineStr">
         <is>
           <t>JUL 2022</t>
         </is>
       </c>
-      <c r="N14" s="7" t="inlineStr">
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>7,227</t>
         </is>
       </c>
-      <c r="P14" s="6" t="inlineStr">
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>APR 2022</t>
         </is>
       </c>
-      <c r="Q14" s="7" t="inlineStr">
+      <c r="Q14" s="4" t="inlineStr">
         <is>
           <t>1,816</t>
         </is>
       </c>
-      <c r="S14" s="6" t="inlineStr">
+      <c r="S14" s="3" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="T14" s="7" t="inlineStr">
+      <c r="T14" s="4" t="inlineStr">
         <is>
           <t>87</t>
         </is>
       </c>
-      <c r="V14" s="6" t="inlineStr">
+      <c r="V14" s="3" t="inlineStr">
         <is>
           <t>Jul22</t>
         </is>
       </c>
-      <c r="W14" s="7" t="n">
+      <c r="W14" s="4" t="n">
         <v>1410</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" thickBot="1"/>
+    <row r="15" ht="15" customHeight="1" s="8" thickBot="1"/>
     <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>British-Pound</t>
         </is>
       </c>
-      <c r="B16" s="9" t="n"/>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="B16" s="6" t="n"/>
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>NY Harbor ULSD</t>
         </is>
       </c>
-      <c r="E16" s="9" t="n"/>
-      <c r="G16" s="8" t="inlineStr">
+      <c r="E16" s="6" t="n"/>
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>E mini Dow</t>
         </is>
       </c>
-      <c r="H16" s="9" t="n"/>
-      <c r="M16" s="8" t="inlineStr">
+      <c r="H16" s="6" t="n"/>
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>Oats</t>
         </is>
       </c>
-      <c r="N16" s="9" t="n"/>
-      <c r="P16" s="8" t="inlineStr">
+      <c r="N16" s="6" t="n"/>
+      <c r="P16" s="5" t="inlineStr">
         <is>
           <t>Lean Hogs</t>
         </is>
       </c>
-      <c r="Q16" s="9" t="n"/>
-      <c r="S16" s="8" t="inlineStr">
+      <c r="Q16" s="6" t="n"/>
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>Platinum</t>
         </is>
       </c>
-      <c r="T16" s="9" t="n"/>
-      <c r="V16" s="8" t="inlineStr">
+      <c r="T16" s="6" t="n"/>
+      <c r="V16" s="5" t="inlineStr">
         <is>
           <t>Cocoa Futures</t>
         </is>
       </c>
-      <c r="W16" s="9" t="n"/>
+      <c r="W16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="H17" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="M17" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="N17" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="P17" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="Q17" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="S17" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="T17" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="V17" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="W17" s="5" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M17" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="P17" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="S17" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V17" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
         <is>
           <t>Total Volume:</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>222</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>44,048</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="G18" s="1" t="inlineStr">
         <is>
           <t>DEC 2021</t>
         </is>
       </c>
-      <c r="H18" s="5" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>2,113</t>
         </is>
       </c>
-      <c r="M18" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="N18" s="5" t="inlineStr">
+      <c r="M18" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>301</t>
         </is>
       </c>
-      <c r="P18" s="4" t="inlineStr">
+      <c r="P18" s="1" t="inlineStr">
         <is>
           <t>DEC 2021</t>
         </is>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
+      <c r="Q18" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="S18" s="4" t="inlineStr">
+      <c r="S18" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="T18" s="5" t="inlineStr">
+      <c r="T18" s="2" t="inlineStr">
         <is>
           <t>15,361</t>
         </is>
       </c>
-      <c r="V18" s="4" t="inlineStr">
+      <c r="V18" s="1" t="inlineStr">
         <is>
           <t>Mar22</t>
         </is>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="2" t="n">
         <v>14944</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>569</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="1" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>41,226</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="H19" s="5" t="inlineStr">
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>271,461</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="1" t="inlineStr">
         <is>
           <t>MAY 2022</t>
         </is>
       </c>
-      <c r="N19" s="5" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>56</t>
         </is>
       </c>
-      <c r="P19" s="4" t="inlineStr">
+      <c r="P19" s="1" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="Q19" s="5" t="inlineStr">
+      <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>15,348</t>
         </is>
       </c>
-      <c r="S19" s="4" t="inlineStr">
+      <c r="S19" s="1" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="T19" s="5" t="inlineStr">
+      <c r="T19" s="2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="V19" s="4" t="inlineStr">
+      <c r="V19" s="1" t="inlineStr">
         <is>
           <t>May22</t>
         </is>
       </c>
-      <c r="W19" s="5" t="n">
+      <c r="W19" s="2" t="n">
         <v>7032</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="inlineStr">
+    <row r="20" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>86,291</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>17,324</t>
         </is>
       </c>
-      <c r="G20" s="6" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t>JUN 2022</t>
         </is>
       </c>
-      <c r="H20" s="7" t="inlineStr">
+      <c r="H20" s="4" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="M20" s="6" t="inlineStr">
+      <c r="M20" s="3" t="inlineStr">
         <is>
           <t>JUL 2022</t>
         </is>
       </c>
-      <c r="N20" s="7" t="inlineStr">
+      <c r="N20" s="4" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="P20" s="6" t="inlineStr">
+      <c r="P20" s="3" t="inlineStr">
         <is>
           <t>APR 2022</t>
         </is>
       </c>
-      <c r="Q20" s="7" t="inlineStr">
+      <c r="Q20" s="4" t="inlineStr">
         <is>
           <t>7,144</t>
         </is>
       </c>
-      <c r="S20" s="6" t="inlineStr">
+      <c r="S20" s="3" t="inlineStr">
         <is>
           <t>APR 2022</t>
         </is>
       </c>
-      <c r="T20" s="7" t="inlineStr">
+      <c r="T20" s="4" t="inlineStr">
         <is>
           <t>3,485</t>
         </is>
       </c>
-      <c r="V20" s="6" t="inlineStr">
+      <c r="V20" s="3" t="inlineStr">
         <is>
           <t>Jul22</t>
         </is>
       </c>
-      <c r="W20" s="7" t="n">
+      <c r="W20" s="4" t="n">
         <v>4381</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" thickBot="1"/>
+    <row r="21" ht="15" customHeight="1" s="8" thickBot="1"/>
     <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Australian Dollar</t>
         </is>
       </c>
-      <c r="B22" s="9" t="n"/>
-      <c r="D22" s="8" t="inlineStr">
+      <c r="B22" s="6" t="n"/>
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>NY Harbor ULSD (HO)</t>
         </is>
       </c>
-      <c r="E22" s="9" t="n"/>
-      <c r="G22" s="8" t="inlineStr">
+      <c r="E22" s="6" t="n"/>
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>E mini Russel 2000</t>
         </is>
       </c>
-      <c r="H22" s="9" t="n"/>
-      <c r="M22" s="8" t="inlineStr">
+      <c r="H22" s="6" t="n"/>
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>Rough Rice</t>
         </is>
       </c>
-      <c r="N22" s="9" t="n"/>
-      <c r="S22" s="8" t="inlineStr">
+      <c r="N22" s="6" t="n"/>
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>Palladium</t>
         </is>
       </c>
-      <c r="T22" s="9" t="n"/>
-      <c r="V22" s="8" t="inlineStr">
+      <c r="T22" s="6" t="n"/>
+      <c r="V22" s="5" t="inlineStr">
         <is>
           <t>Sugar No. 11 Futures</t>
         </is>
       </c>
-      <c r="W22" s="9" t="n"/>
+      <c r="W22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="E23" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="H23" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="M23" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="N23" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="S23" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="T23" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="V23" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="W23" s="5" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M23" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="S23" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V23" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
         <is>
           <t>Total Volume:</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D24" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>44,048</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>DEC 2021</t>
         </is>
       </c>
-      <c r="H24" s="5" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>1,928</t>
         </is>
       </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="M24" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="N24" s="5" t="inlineStr">
+      <c r="N24" s="2" t="inlineStr">
         <is>
           <t>597</t>
         </is>
       </c>
-      <c r="S24" s="4" t="inlineStr">
+      <c r="S24" s="1" t="inlineStr">
         <is>
           <t>DEC 2021</t>
         </is>
       </c>
-      <c r="T24" s="5" t="inlineStr">
+      <c r="T24" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V24" s="4" t="inlineStr">
+      <c r="V24" s="1" t="inlineStr">
         <is>
           <t>Mar22</t>
         </is>
       </c>
-      <c r="W24" s="5" t="n">
+      <c r="W24" s="2" t="n">
         <v>28261</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D25" s="1" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>41,226</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="H25" s="5" t="inlineStr">
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
         <is>
           <t>334,169</t>
         </is>
       </c>
-      <c r="M25" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="N25" s="5" t="inlineStr">
+      <c r="M25" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
         <is>
           <t>661</t>
         </is>
       </c>
-      <c r="S25" s="4" t="inlineStr">
+      <c r="S25" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="T25" s="5" t="inlineStr">
+      <c r="T25" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="V25" s="4" t="inlineStr">
+      <c r="V25" s="1" t="inlineStr">
         <is>
           <t>May22</t>
         </is>
       </c>
-      <c r="W25" s="5" t="n">
+      <c r="W25" s="2" t="n">
         <v>11251</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="B26" s="7" t="inlineStr">
+    <row r="26" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>69,566</t>
         </is>
       </c>
-      <c r="D26" s="6" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>17,324</t>
         </is>
       </c>
-      <c r="G26" s="6" t="inlineStr">
+      <c r="G26" s="3" t="inlineStr">
         <is>
           <t>JUN 2022</t>
         </is>
       </c>
-      <c r="H26" s="7" t="inlineStr">
+      <c r="H26" s="4" t="inlineStr">
         <is>
           <t>37</t>
         </is>
       </c>
-      <c r="M26" s="6" t="inlineStr">
+      <c r="M26" s="3" t="inlineStr">
         <is>
           <t>MAY 2022</t>
         </is>
       </c>
-      <c r="N26" s="7" t="inlineStr">
+      <c r="N26" s="4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="S26" s="6" t="inlineStr">
+      <c r="S26" s="3" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="T26" s="7" t="inlineStr">
+      <c r="T26" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="V26" s="6" t="inlineStr">
+      <c r="V26" s="3" t="inlineStr">
         <is>
           <t>Jul22</t>
         </is>
       </c>
-      <c r="W26" s="7" t="n">
+      <c r="W26" s="4" t="n">
         <v>10388</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" thickBot="1"/>
+    <row r="27" ht="15" customHeight="1" s="8" thickBot="1"/>
     <row r="28">
-      <c r="A28" s="8" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>New Zeland Dollar</t>
         </is>
       </c>
-      <c r="B28" s="9" t="n"/>
-      <c r="D28" s="8" t="inlineStr">
+      <c r="B28" s="6" t="n"/>
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Henry Hub Natural Gas</t>
         </is>
       </c>
-      <c r="E28" s="9" t="n"/>
-      <c r="M28" s="8" t="inlineStr">
+      <c r="E28" s="6" t="n"/>
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>Soybean</t>
         </is>
       </c>
-      <c r="N28" s="9" t="n"/>
-      <c r="S28" s="8" t="inlineStr">
+      <c r="N28" s="6" t="n"/>
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>Copper</t>
         </is>
       </c>
-      <c r="T28" s="9" t="n"/>
-      <c r="V28" s="8" t="inlineStr">
+      <c r="T28" s="6" t="n"/>
+      <c r="V28" s="5" t="inlineStr">
         <is>
           <t>Coffee C Futures</t>
         </is>
       </c>
-      <c r="W28" s="9" t="n"/>
+      <c r="W28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="M29" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="N29" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="S29" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="T29" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="V29" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="W29" s="5" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M29" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="S29" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V29" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
         <is>
           <t>Total Volume:</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>17,626</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="D30" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>101,625</t>
         </is>
       </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="M30" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="N30" s="5" t="inlineStr">
+      <c r="N30" s="2" t="inlineStr">
         <is>
           <t>122,742</t>
         </is>
       </c>
-      <c r="S30" s="4" t="inlineStr">
+      <c r="S30" s="1" t="inlineStr">
         <is>
           <t>DEC 2021</t>
         </is>
       </c>
-      <c r="T30" s="5" t="inlineStr">
+      <c r="T30" s="2" t="inlineStr">
         <is>
           <t>548</t>
         </is>
       </c>
-      <c r="V30" s="4" t="inlineStr">
+      <c r="V30" s="1" t="inlineStr">
         <is>
           <t>Dec21</t>
         </is>
       </c>
-      <c r="W30" s="5" t="n">
+      <c r="W30" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>JUN 2022</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="1" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>36,913</t>
         </is>
       </c>
-      <c r="M31" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="N31" s="5" t="inlineStr">
+      <c r="M31" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
         <is>
           <t>103,739</t>
         </is>
       </c>
-      <c r="S31" s="4" t="inlineStr">
+      <c r="S31" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="T31" s="5" t="inlineStr">
+      <c r="T31" s="2" t="inlineStr">
         <is>
           <t>256</t>
         </is>
       </c>
-      <c r="V31" s="4" t="inlineStr">
+      <c r="V31" s="1" t="inlineStr">
         <is>
           <t>Mar22</t>
         </is>
       </c>
-      <c r="W31" s="5" t="n">
+      <c r="W31" s="2" t="n">
         <v>9700</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="6" t="inlineStr">
+    <row r="32" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>DEC 2022</t>
         </is>
       </c>
-      <c r="B32" s="7" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D32" s="6" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="E32" s="7" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>34,418</t>
         </is>
       </c>
-      <c r="M32" s="6" t="inlineStr">
+      <c r="M32" s="3" t="inlineStr">
         <is>
           <t>MAY 2022</t>
         </is>
       </c>
-      <c r="N32" s="7" t="inlineStr">
+      <c r="N32" s="4" t="inlineStr">
         <is>
           <t>25,929</t>
         </is>
       </c>
-      <c r="S32" s="6" t="inlineStr">
+      <c r="S32" s="3" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="T32" s="7" t="inlineStr">
+      <c r="T32" s="4" t="inlineStr">
         <is>
           <t>156</t>
         </is>
       </c>
-      <c r="V32" s="6" t="inlineStr">
+      <c r="V32" s="3" t="inlineStr">
         <is>
           <t>May22</t>
         </is>
       </c>
-      <c r="W32" s="7" t="n">
+      <c r="W32" s="4" t="n">
         <v>2932</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" thickBot="1"/>
+    <row r="33" ht="15" customHeight="1" s="8" thickBot="1"/>
     <row r="34">
-      <c r="A34" s="8" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>Canadian Dollar</t>
         </is>
       </c>
-      <c r="B34" s="9" t="n"/>
-      <c r="M34" s="8" t="inlineStr">
+      <c r="B34" s="6" t="n"/>
+      <c r="M34" s="5" t="inlineStr">
         <is>
           <t>Soybean Oil</t>
         </is>
       </c>
-      <c r="N34" s="9" t="n"/>
-      <c r="V34" s="8" t="inlineStr">
+      <c r="N34" s="6" t="n"/>
+      <c r="V34" s="5" t="inlineStr">
         <is>
           <t>FCOJ-A Futures</t>
         </is>
       </c>
-      <c r="W34" s="9" t="n"/>
+      <c r="W34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="M35" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="N35" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="V35" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="W35" s="5" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M35" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="V35" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="W35" s="2" t="inlineStr">
         <is>
           <t>Total Volume:</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>268</t>
         </is>
       </c>
-      <c r="M36" s="4" t="inlineStr">
+      <c r="M36" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="N36" s="5" t="inlineStr">
+      <c r="N36" s="2" t="inlineStr">
         <is>
           <t>30,107</t>
         </is>
       </c>
-      <c r="V36" s="4" t="inlineStr">
+      <c r="V36" s="1" t="inlineStr">
         <is>
           <t>Jan22</t>
         </is>
       </c>
-      <c r="W36" s="5" t="n">
+      <c r="W36" s="2" t="n">
         <v>978</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>66</t>
         </is>
       </c>
-      <c r="M37" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="N37" s="5" t="inlineStr">
+      <c r="M37" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
         <is>
           <t>38,187</t>
         </is>
       </c>
-      <c r="V37" s="4" t="inlineStr">
+      <c r="V37" s="1" t="inlineStr">
         <is>
           <t>Mar22</t>
         </is>
       </c>
-      <c r="W37" s="5" t="n">
+      <c r="W37" s="2" t="n">
         <v>1031</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="inlineStr">
+    <row r="38" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>66,491</t>
         </is>
       </c>
-      <c r="M38" s="6" t="inlineStr">
+      <c r="M38" s="3" t="inlineStr">
         <is>
           <t>MAY 2022</t>
         </is>
       </c>
-      <c r="N38" s="7" t="inlineStr">
+      <c r="N38" s="4" t="inlineStr">
         <is>
           <t>14,930</t>
         </is>
       </c>
-      <c r="V38" s="6" t="inlineStr">
+      <c r="V38" s="3" t="inlineStr">
         <is>
           <t>May22</t>
         </is>
       </c>
-      <c r="W38" s="7" t="n">
+      <c r="W38" s="4" t="n">
         <v>131</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" thickBot="1"/>
+    <row r="39" ht="15" customHeight="1" s="8" thickBot="1"/>
     <row r="40">
-      <c r="A40" s="8" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>Japanese Jen</t>
         </is>
       </c>
-      <c r="B40" s="9" t="n"/>
-      <c r="M40" s="8" t="inlineStr">
+      <c r="B40" s="6" t="n"/>
+      <c r="M40" s="5" t="inlineStr">
         <is>
           <t>Soybean Meal</t>
         </is>
       </c>
-      <c r="N40" s="9" t="n"/>
+      <c r="N40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <t>Total Volume:</t>
-        </is>
-      </c>
-      <c r="M41" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="N41" s="5" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Total Volume:</t>
+        </is>
+      </c>
+      <c r="M41" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
         <is>
           <t>Total Volume:</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>341</t>
         </is>
       </c>
-      <c r="M42" s="4" t="inlineStr">
+      <c r="M42" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="N42" s="5" t="inlineStr">
+      <c r="N42" s="2" t="inlineStr">
         <is>
           <t>32,684</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>555</t>
         </is>
       </c>
-      <c r="M43" s="4" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="N43" s="5" t="inlineStr">
+      <c r="M43" s="1" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
         <is>
           <t>31,857</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" thickBot="1">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="inlineStr">
+    <row r="44" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>94,463</t>
         </is>
       </c>
-      <c r="M44" s="6" t="inlineStr">
+      <c r="M44" s="3" t="inlineStr">
         <is>
           <t>MAY 2022</t>
         </is>
       </c>
-      <c r="N44" s="7" t="inlineStr">
+      <c r="N44" s="4" t="inlineStr">
         <is>
           <t>9,608</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" thickBot="1"/>
+    <row r="45" ht="15" customHeight="1" s="8" thickBot="1"/>
     <row r="46">
-      <c r="A46" s="8" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>Mexican Peso</t>
         </is>
       </c>
-      <c r="B46" s="9" t="n"/>
+      <c r="B46" s="6" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B47" s="5" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>Total Volume:</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>JAN 2022</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>FEB 2022</t>
         </is>
       </c>
-      <c r="B49" s="5" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1" thickBot="1">
-      <c r="A50" s="6" t="inlineStr">
-        <is>
-          <t>MAR 2022</t>
-        </is>
-      </c>
-      <c r="B50" s="7" t="inlineStr">
+    <row r="50" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>MAR 2022</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>35,304</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1" thickBot="1"/>
+    <row r="51" ht="15" customHeight="1" s="8" thickBot="1"/>
     <row r="52">
-      <c r="A52" s="8" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
         <is>
           <t>Us-Dollar Index TheIce</t>
         </is>
       </c>
-      <c r="B52" s="9" t="n"/>
+      <c r="B52" s="6" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="inlineStr">
-        <is>
-          <t>Monat:</t>
-        </is>
-      </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Monat:</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Total Volume:</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Mar22</t>
         </is>
       </c>
-      <c r="B54" s="5" t="n">
+      <c r="B54" s="2" t="n">
         <v>13484</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Jun22</t>
         </is>
       </c>
-      <c r="B55" s="5" t="n">
+      <c r="B55" s="2" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1" thickBot="1">
-      <c r="A56" s="6" t="inlineStr">
+    <row r="56" ht="15" customHeight="1" s="8" thickBot="1">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>Sep22</t>
         </is>
       </c>
-      <c r="B56" s="7" t="n">
+      <c r="B56" s="4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="V22:W22"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="V10:W10"/>
@@ -2574,22 +2557,23 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
 </worksheet>
